--- a/horarioUnificado_a_dividir.xlsx
+++ b/horarioUnificado_a_dividir.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="100">
   <si>
     <t>SIGLA ATCO</t>
   </si>
@@ -166,6 +166,9 @@
     <t>COMS</t>
   </si>
   <si>
+    <t>???</t>
+  </si>
+  <si>
     <t>HLG</t>
   </si>
   <si>
@@ -232,9 +235,15 @@
     <t>NANTD</t>
   </si>
   <si>
+    <t>MANR</t>
+  </si>
+  <si>
     <t>NANRD</t>
   </si>
   <si>
+    <t>TANR</t>
+  </si>
+  <si>
     <t>MLS</t>
   </si>
   <si>
@@ -244,9 +253,15 @@
     <t>3D</t>
   </si>
   <si>
+    <t>TLPR</t>
+  </si>
+  <si>
     <t>FCE</t>
   </si>
   <si>
+    <t>1T</t>
+  </si>
+  <si>
     <t>BANTD</t>
   </si>
   <si>
@@ -256,48 +271,45 @@
     <t>JBV</t>
   </si>
   <si>
-    <t>1T</t>
-  </si>
-  <si>
     <t>GMT</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>SIND</t>
   </si>
   <si>
     <t>BRS</t>
   </si>
   <si>
-    <t>TLPR</t>
-  </si>
-  <si>
     <t>HZG</t>
   </si>
   <si>
+    <t>MANRAS</t>
+  </si>
+  <si>
+    <t>MDBM</t>
+  </si>
+  <si>
+    <t>JIS</t>
+  </si>
+  <si>
+    <t>CDT</t>
+  </si>
+  <si>
+    <t>WGG</t>
+  </si>
+  <si>
+    <t>GCE</t>
+  </si>
+  <si>
+    <t>YIS</t>
+  </si>
+  <si>
     <t>6RT</t>
   </si>
   <si>
-    <t>MDBM</t>
-  </si>
-  <si>
-    <t>JIS</t>
-  </si>
-  <si>
-    <t>CDT</t>
-  </si>
-  <si>
-    <t>WGG</t>
-  </si>
-  <si>
-    <t>GCE</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>YIS</t>
-  </si>
-  <si>
     <t>NLPRD</t>
   </si>
   <si>
@@ -335,15 +347,6 @@
   </si>
   <si>
     <t>6D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t>MANRAS</t>
-  </si>
-  <si>
-    <t>TANR</t>
   </si>
 </sst>
 </file>
@@ -390,12 +393,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -465,6 +462,12 @@
         <bgColor rgb="FFE6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor rgb="FFFF9999"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -493,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -502,19 +505,23 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,8 +805,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:TZ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -807,8 +814,8 @@
     <col min="1" max="31" width="6.6328125" customWidth="1"/>
     <col min="32" max="32" width="5.6328125" customWidth="1"/>
     <col min="33" max="546" width="6.6328125" hidden="1" customWidth="1"/>
-    <col min="547" max="553" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="554" max="16384" width="8.7265625" hidden="1"/>
+    <col min="547" max="554" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="555" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -913,673 +920,679 @@
       <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="N2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="3" t="s">
+      <c r="S2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="B3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="C3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="D3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="I3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="K3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="3" t="s">
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="P3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="R3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>45</v>
+      <c r="S3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="10"/>
+      <c r="U3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="C4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="15" t="s">
+      <c r="R4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="V4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="15" t="s">
+      <c r="Z4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="15" t="s">
+      <c r="AC4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="AE4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="U4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG4" s="15" t="s">
-        <v>49</v>
+      <c r="AF4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="N5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="15" t="s">
+      <c r="AC5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="W5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="X5" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC5" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG5" s="15" t="s">
-        <v>50</v>
+      <c r="AD5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" s="15" t="s">
+      <c r="H6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="S6" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="U6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="X6" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA6" s="15" t="s">
+      <c r="J6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AB6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC6" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG6" s="15" t="s">
-        <v>47</v>
+      <c r="N6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="B7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="10"/>
+      <c r="U7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="X7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AF7" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="W8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="X8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF8" s="15" t="s">
+      <c r="AB8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC8" s="12" t="s">
         <v>48</v>
+      </c>
+      <c r="AD8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF8" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="AG8" s="3" t="s">
         <v>35</v>
@@ -1587,1480 +1600,1580 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" s="10"/>
+      <c r="U9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="X9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC9" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" t="s">
-        <v>61</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" t="s">
-        <v>43</v>
-      </c>
-      <c r="U9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB9" s="13" t="s">
+      <c r="AF9" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="AD9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF9" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="M10" s="10"/>
+      <c r="N10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="O10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" t="s">
-        <v>61</v>
-      </c>
-      <c r="O10" s="12" t="s">
+      <c r="Q10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="10"/>
+      <c r="U10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="12" t="s">
+      <c r="W10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z10" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z10" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF10">
+      <c r="AE10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF10" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="10"/>
+      <c r="U11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="X11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC11" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF11" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="X11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC11" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF11" s="13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="Q12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="10" t="s">
+      <c r="S12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="10"/>
+      <c r="U12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="W12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>96</v>
+      <c r="Z12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF12" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" t="s">
-        <v>56</v>
-      </c>
-      <c r="O13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S13" t="s">
-        <v>44</v>
-      </c>
-      <c r="T13" t="s">
-        <v>61</v>
-      </c>
-      <c r="U13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="T13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF13" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF13" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="H14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="10" t="s">
+      <c r="T14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" t="s">
-        <v>60</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="9" t="s">
+      <c r="Y14" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z14" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="S14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="T14" t="s">
-        <v>64</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF14" s="3" t="s">
+      <c r="AD14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF14" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="9" t="s">
+      <c r="S15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="10"/>
+      <c r="U15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="X15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M15" t="s">
-        <v>64</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P15" s="10" t="s">
+      <c r="Y15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="V15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF15" s="3" t="s">
+      <c r="AA15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD15" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF15" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF16" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" t="s">
-        <v>56</v>
-      </c>
-      <c r="T16" t="s">
-        <v>60</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF16" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" t="s">
-        <v>60</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q17" s="14" t="s">
+      <c r="R17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T17" t="s">
-        <v>66</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V17" s="9" t="s">
+      <c r="S17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W17" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC17" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB17" s="9" t="s">
+      <c r="AE17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF17" s="3" t="s">
+      <c r="AF17" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="T18" s="10"/>
+      <c r="U18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF18" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" t="s">
-        <v>44</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q18" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF18" s="11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="10">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="O19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="S19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" t="s">
-        <v>66</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="S19" s="14" t="s">
+      <c r="T19" s="10"/>
+      <c r="U19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="U19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X19" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC19" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>37</v>
+      <c r="AD19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF19" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" t="s">
-        <v>73</v>
-      </c>
-      <c r="L20" t="s">
-        <v>73</v>
-      </c>
-      <c r="M20" t="s">
-        <v>84</v>
-      </c>
-      <c r="O20" t="s">
-        <v>67</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>73</v>
-      </c>
-      <c r="R20" t="s">
-        <v>69</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U20" t="s">
-        <v>69</v>
-      </c>
-      <c r="V20" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="W20" t="s">
-        <v>73</v>
-      </c>
-      <c r="X20" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB20" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>69</v>
+      <c r="C20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="V20" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="X20" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB20" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD20" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF20" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="L21" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N21" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="N21" t="s">
-        <v>83</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P21" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="S21" t="s">
-        <v>73</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V21" t="s">
-        <v>73</v>
-      </c>
-      <c r="W21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD21" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>73</v>
+      <c r="O21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R21" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="T21" s="10"/>
+      <c r="U21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="W21" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="X21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD21" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF21" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q22" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="R22" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M22" t="s">
-        <v>83</v>
-      </c>
-      <c r="N22" t="s">
-        <v>87</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q22" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="R22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T22" t="s">
-        <v>84</v>
-      </c>
-      <c r="U22" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="V22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="X22" s="3" t="s">
+      <c r="U22" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="V22" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="W22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="X22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Y22" s="3" t="s">
+      <c r="Y22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z22" s="3" t="s">
+      <c r="Z22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AA22" s="3" t="s">
+      <c r="AA22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AB22" s="3" t="s">
+      <c r="AB22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC22" s="3" t="s">
+      <c r="AC22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AD22" s="3" t="s">
+      <c r="AD22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AE22" s="3" t="s">
+      <c r="AE22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AF22" s="3" t="s">
+      <c r="AF22" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q23" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" t="s">
-        <v>69</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L23" t="s">
-        <v>69</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="T23" t="s">
+      <c r="R23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="T23" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="U23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W23" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="X23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA23" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="U23" t="s">
-        <v>73</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W23" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="X23" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF23" s="8" t="s">
-        <v>67</v>
+      <c r="AB23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF23" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="I24" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T24" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P24" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R24" t="s">
-        <v>73</v>
-      </c>
-      <c r="S24" t="s">
-        <v>69</v>
-      </c>
-      <c r="T24" t="s">
-        <v>83</v>
-      </c>
-      <c r="U24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W24" t="s">
-        <v>69</v>
-      </c>
-      <c r="X24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE24" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF24" s="3" t="s">
+      <c r="U24" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="X24" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA24" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB24" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE24" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF24" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y25" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z25" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N25" t="s">
-        <v>84</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="AB25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE25" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="P25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>69</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="T25" t="s">
-        <v>73</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V25" t="s">
-        <v>69</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X25" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y25" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF25" s="7" t="s">
-        <v>75</v>
+      <c r="AF25" s="19" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.35"/>
@@ -3069,8 +3182,8 @@
     <row r="29" spans="1:32" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3091,41 +3204,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="A1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>95</v>
+      <c r="I1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -3179,7 +3292,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <f>COUNTIF(HorarioUnificado!B3:AF3,"DESC")+COUNTIF(HorarioUnificado!B3:AF3,"TROP")</f>
@@ -3228,7 +3341,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <f>COUNTIF(HorarioUnificado!B4:AF4,"DESC")+COUNTIF(HorarioUnificado!B4:AF4,"TROP")</f>
@@ -3277,7 +3390,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <f>COUNTIF(HorarioUnificado!B5:AF5,"DESC")+COUNTIF(HorarioUnificado!B5:AF5,"TROP")</f>
@@ -3326,7 +3439,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <f>COUNTIF(HorarioUnificado!B6:AF6,"DESC")+COUNTIF(HorarioUnificado!B6:AF6,"TROP")</f>
@@ -3375,7 +3488,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <f>COUNTIF(HorarioUnificado!B7:AF7,"DESC")+COUNTIF(HorarioUnificado!B7:AF7,"TROP")</f>
@@ -3424,7 +3537,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8">
         <f>COUNTIF(HorarioUnificado!B8:AF8,"DESC")+COUNTIF(HorarioUnificado!B8:AF8,"TROP")</f>
@@ -3473,7 +3586,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <f>COUNTIF(HorarioUnificado!B9:AF9,"DESC")+COUNTIF(HorarioUnificado!B9:AF9,"TROP")</f>
@@ -3522,7 +3635,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <f>COUNTIF(HorarioUnificado!B10:AF10,"DESC")+COUNTIF(HorarioUnificado!B10:AF10,"TROP")</f>
@@ -3571,7 +3684,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B11">
         <f>COUNTIF(HorarioUnificado!B11:AF11,"DESC")+COUNTIF(HorarioUnificado!B11:AF11,"TROP")</f>
@@ -3620,7 +3733,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B12">
         <f>COUNTIF(HorarioUnificado!B12:AF12,"DESC")+COUNTIF(HorarioUnificado!B12:AF12,"TROP")</f>
@@ -3669,7 +3782,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <f>COUNTIF(HorarioUnificado!B13:AF13,"DESC")+COUNTIF(HorarioUnificado!B13:AF13,"TROP")</f>
@@ -3718,7 +3831,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B14">
         <f>COUNTIF(HorarioUnificado!B14:AF14,"DESC")+COUNTIF(HorarioUnificado!B14:AF14,"TROP")</f>
@@ -3767,7 +3880,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B15">
         <f>COUNTIF(HorarioUnificado!B15:AF15,"DESC")+COUNTIF(HorarioUnificado!B15:AF15,"TROP")</f>
@@ -3816,7 +3929,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B16">
         <f>COUNTIF(HorarioUnificado!B16:AF16,"DESC")+COUNTIF(HorarioUnificado!B16:AF16,"TROP")</f>
@@ -3865,7 +3978,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B17">
         <f>COUNTIF(HorarioUnificado!B17:AF17,"DESC")+COUNTIF(HorarioUnificado!B17:AF17,"TROP")</f>
@@ -3914,7 +4027,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B18">
         <f>COUNTIF(HorarioUnificado!B18:AF18,"DESC")+COUNTIF(HorarioUnificado!B18:AF18,"TROP")</f>
@@ -3963,7 +4076,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B19">
         <f>COUNTIF(HorarioUnificado!B19:AF19,"DESC")+COUNTIF(HorarioUnificado!B19:AF19,"TROP")</f>
@@ -4012,7 +4125,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B20">
         <f>COUNTIF(HorarioUnificado!B20:AF20,"DESC")+COUNTIF(HorarioUnificado!B20:AF20,"TROP")</f>
@@ -4061,7 +4174,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B21">
         <f>COUNTIF(HorarioUnificado!B21:AF21,"DESC")+COUNTIF(HorarioUnificado!B21:AF21,"TROP")</f>
@@ -4110,7 +4223,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B22">
         <f>COUNTIF(HorarioUnificado!B22:AF22,"DESC")+COUNTIF(HorarioUnificado!B22:AF22,"TROP")</f>
@@ -4159,7 +4272,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B23">
         <f>COUNTIF(HorarioUnificado!B23:AF23,"DESC")+COUNTIF(HorarioUnificado!B23:AF23,"TROP")</f>
@@ -4208,7 +4321,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B24">
         <f>COUNTIF(HorarioUnificado!B24:AF24,"DESC")+COUNTIF(HorarioUnificado!B24:AF24,"TROP")</f>
@@ -4257,7 +4370,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B25">
         <f>COUNTIF(HorarioUnificado!B25:AF25,"DESC")+COUNTIF(HorarioUnificado!B25:AF25,"TROP")</f>

--- a/horarioUnificado_a_dividir.xlsx
+++ b/horarioUnificado_a_dividir.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Estadísticas" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HorarioUnificado!$A$1:$AF$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HorarioUnificado!$A$1:$AF$29</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="106">
   <si>
     <t>SIGLA ATCO</t>
   </si>
@@ -184,12 +184,21 @@
     <t>3</t>
   </si>
   <si>
+    <t>MASR</t>
+  </si>
+  <si>
     <t>6R</t>
   </si>
   <si>
+    <t>MANR</t>
+  </si>
+  <si>
     <t>COME</t>
   </si>
   <si>
+    <t>TANR</t>
+  </si>
+  <si>
     <t>MEI</t>
   </si>
   <si>
@@ -223,6 +232,9 @@
     <t>6T</t>
   </si>
   <si>
+    <t>MAST</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -235,13 +247,10 @@
     <t>NANTD</t>
   </si>
   <si>
-    <t>MANR</t>
-  </si>
-  <si>
     <t>NANRD</t>
   </si>
   <si>
-    <t>TANR</t>
+    <t>TASR</t>
   </si>
   <si>
     <t>MLS</t>
@@ -256,6 +265,9 @@
     <t>TLPR</t>
   </si>
   <si>
+    <t>TANT</t>
+  </si>
+  <si>
     <t>FCE</t>
   </si>
   <si>
@@ -314,6 +326,12 @@
   </si>
   <si>
     <t>BLPTD</t>
+  </si>
+  <si>
+    <t>MLPR</t>
+  </si>
+  <si>
+    <t>TLPT</t>
   </si>
   <si>
     <t>MAQ</t>
@@ -377,7 +395,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,8 +482,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor rgb="FFFF6666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90EE90"/>
+        <bgColor rgb="FF90EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD700"/>
+        <bgColor rgb="FFFFD700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
         <bgColor rgb="FFFF9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+        <bgColor rgb="FFFFA500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4500"/>
+        <bgColor rgb="FFFF4500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -496,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -505,23 +565,29 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,8 +871,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:TZ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="A26:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -920,97 +986,97 @@
       <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="6" t="s">
+      <c r="N2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="6" t="s">
+      <c r="S2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AC2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1018,581 +1084,591 @@
       <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11" t="s">
+      <c r="N3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="6" t="s">
+      <c r="O3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="P3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="R3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="X3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>46</v>
+      <c r="S3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="12" t="s">
+      <c r="B4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="C4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="U4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>50</v>
+      <c r="R4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="12" t="s">
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="F5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="W5" s="12" t="s">
+      <c r="G5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="X5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z5" s="12" t="s">
+      <c r="H5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AA5" s="12" t="s">
+      <c r="L5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="W5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AB5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE5" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>51</v>
+      <c r="AC5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="12" t="s">
+      <c r="H6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" s="12" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="S6" s="12" t="s">
+      <c r="V6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="W6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="U6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6" s="12" t="s">
+      <c r="Y6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="X6" s="12" t="s">
+      <c r="AA6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Y6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC6" s="12" t="s">
+      <c r="AE6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AD6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>48</v>
+      <c r="AG6" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="6" t="s">
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="X7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y7" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF7" s="6" t="s">
+      <c r="AF7" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="X8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA8" s="12" t="s">
+      <c r="M8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD8" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD8" s="12" t="s">
+      <c r="AE8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AE8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF8" s="12" t="s">
-        <v>49</v>
+      <c r="AF8" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="AG8" s="3" t="s">
         <v>35</v>
@@ -1600,1590 +1676,1684 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="X9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="T9" s="10"/>
-      <c r="U9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="X9" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="7" t="s">
+      <c r="AC9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AC9" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE9" s="6" t="s">
+      <c r="AE9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AF9" s="6" t="s">
+      <c r="AF9" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="O10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="Z10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA10" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="10"/>
-      <c r="U10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="V10" s="8" t="s">
+      <c r="AB10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="W10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z10" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF10" s="10">
+      <c r="AE10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="14" t="s">
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N11" s="6" t="s">
+      <c r="K11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T11" s="10"/>
-      <c r="U11" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="W11" s="7" t="s">
+      <c r="S11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="X11" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC11" s="18" t="s">
+      <c r="X11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA11" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AD11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE11" s="8" t="s">
+      <c r="AB11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AF11" s="7" t="s">
+      <c r="AF11" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="F12" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10" t="s">
+      <c r="N12" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="O12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="7" t="s">
+      <c r="U12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T12" s="10"/>
-      <c r="U12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="V12" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="X12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z12" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF12" s="16" t="s">
+      <c r="Y12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE12" s="9" t="s">
         <v>62</v>
+      </c>
+      <c r="AF12" s="18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="T13" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="U13" s="6" t="s">
+      <c r="L13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" t="s">
         <v>46</v>
       </c>
-      <c r="V13" s="6" t="s">
+      <c r="T13" t="s">
+        <v>66</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF13" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF13" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10" t="s">
+      <c r="F14" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="S14" s="7" t="s">
+      <c r="G14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="T14" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="V14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="X14" s="14" t="s">
+      <c r="T14" t="s">
+        <v>70</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Y14" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z14" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA14" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB14" s="8" t="s">
+      <c r="Y14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AC14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD14" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE14" s="14" t="s">
+      <c r="AC14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AF14" s="6" t="s">
+      <c r="AF14" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R15" s="14" t="s">
+      <c r="P15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="S15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15" s="10"/>
-      <c r="U15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V15" s="7" t="s">
+      <c r="S15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V15" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="W15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="X15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z15" s="9" t="s">
+      <c r="W15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AA15" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD15" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF15" s="6" t="s">
+      <c r="AA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF15" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" t="s">
+        <v>60</v>
+      </c>
+      <c r="T16" t="s">
+        <v>65</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA16" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="AB16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC16" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="AD16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="T16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="U16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="V16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="W16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z16" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF16" s="14" t="s">
+      <c r="AF16" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="7" t="s">
+      <c r="C17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="10" t="s">
+      <c r="I17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q17" s="8" t="s">
+      <c r="O17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="R17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="S17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T17" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="V17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="W17" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y17" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z17" s="7" t="s">
+      <c r="S17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="W17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC17" s="16" t="s">
+      <c r="AB17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AD17" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE17" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF17" s="6" t="s">
+      <c r="AC17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF17" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="14" t="s">
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="14" t="s">
+      <c r="J18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="7" t="s">
+      <c r="L18" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q18" s="7" t="s">
+      <c r="P18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="R18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="T18" s="10"/>
-      <c r="U18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="W18" s="16" t="s">
+      <c r="R18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="X18" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y18" s="14" t="s">
+      <c r="T18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="X18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Z18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF18" s="13" t="s">
-        <v>57</v>
+      <c r="Z18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA18" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF18" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="10">
+        <v>88</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19">
         <v>7</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="14" t="s">
+      <c r="D19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="H19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S19" s="8" t="s">
+      <c r="N19" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="T19" s="10"/>
-      <c r="U19" s="14" t="s">
+      <c r="U19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="V19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="W19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA19" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB19" s="14" t="s">
+      <c r="V19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AC19" s="7" t="s">
+      <c r="AC19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AD19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF19" s="16" t="s">
-        <v>64</v>
+      <c r="AD19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF19" s="18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="R20" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="S20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="V20" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="W20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="X20" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB20" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD20" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF20" s="10" t="s">
-        <v>70</v>
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" t="s">
+        <v>92</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="O20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>71</v>
+      </c>
+      <c r="R20" t="s">
+        <v>74</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="U20" t="s">
+        <v>74</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="W20" t="s">
+        <v>71</v>
+      </c>
+      <c r="X20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="M21" s="10" t="s">
+      <c r="L21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21" t="s">
+        <v>97</v>
+      </c>
+      <c r="N21" t="s">
         <v>91</v>
       </c>
-      <c r="N21" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R21" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="T21" s="10"/>
-      <c r="U21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="V21" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="W21" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="X21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y21" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z21" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD21" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE21" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF21" s="10" t="s">
-        <v>68</v>
+      <c r="O21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S21" t="s">
+        <v>71</v>
+      </c>
+      <c r="T21" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" t="s">
+        <v>71</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA21" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N22" t="s">
+        <v>97</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P22" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q22" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="R22" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="S22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="U22" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="V22" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="W22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="X22" s="6" t="s">
+      <c r="U22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Y22" s="6" t="s">
+      <c r="Y22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Z22" s="6" t="s">
+      <c r="Z22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AA22" s="6" t="s">
+      <c r="AA22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AB22" s="6" t="s">
+      <c r="AB22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AC22" s="6" t="s">
+      <c r="AC22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AD22" s="6" t="s">
+      <c r="AD22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE22" s="6" t="s">
+      <c r="AE22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AF22" s="6" t="s">
+      <c r="AF22" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" t="s">
+        <v>74</v>
+      </c>
+      <c r="M23" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="N23" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q23" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S23" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="T23" s="10" t="s">
+      <c r="R23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="T23" t="s">
+        <v>97</v>
+      </c>
+      <c r="U23" t="s">
+        <v>71</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X23" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA23" t="s">
         <v>91</v>
       </c>
-      <c r="U23" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="W23" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="X23" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y23" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA23" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC23" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE23" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF23" s="18" t="s">
-        <v>72</v>
+      <c r="AB23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF23" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="N24" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R24" t="s">
+        <v>71</v>
+      </c>
+      <c r="S24" t="s">
+        <v>74</v>
+      </c>
+      <c r="T24" t="s">
+        <v>91</v>
+      </c>
+      <c r="U24" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R24" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="T24" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="U24" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="V24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="W24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="X24" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z24" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA24" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB24" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE24" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF24" s="6" t="s">
+      <c r="V24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W24" t="s">
+        <v>74</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF24" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="O25" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q25" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="R25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S25" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="T25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="U25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="V25" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="W25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="X25" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y25" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z25" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA25" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC25" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE25" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF25" s="19" t="s">
-        <v>86</v>
+      <c r="H25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="N25" t="s">
+        <v>92</v>
+      </c>
+      <c r="O25" t="s">
+        <v>96</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>74</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T25" t="s">
+        <v>71</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V25" t="s">
+        <v>74</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X25" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF25" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:32" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="26"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="F29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="AA29" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3204,41 +3374,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>99</v>
+      <c r="L1" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -3341,7 +3511,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <f>COUNTIF(HorarioUnificado!B4:AF4,"DESC")+COUNTIF(HorarioUnificado!B4:AF4,"TROP")</f>
@@ -3390,7 +3560,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <f>COUNTIF(HorarioUnificado!B5:AF5,"DESC")+COUNTIF(HorarioUnificado!B5:AF5,"TROP")</f>
@@ -3439,7 +3609,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <f>COUNTIF(HorarioUnificado!B6:AF6,"DESC")+COUNTIF(HorarioUnificado!B6:AF6,"TROP")</f>
@@ -3488,7 +3658,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <f>COUNTIF(HorarioUnificado!B7:AF7,"DESC")+COUNTIF(HorarioUnificado!B7:AF7,"TROP")</f>
@@ -3537,7 +3707,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <f>COUNTIF(HorarioUnificado!B8:AF8,"DESC")+COUNTIF(HorarioUnificado!B8:AF8,"TROP")</f>
@@ -3586,7 +3756,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <f>COUNTIF(HorarioUnificado!B9:AF9,"DESC")+COUNTIF(HorarioUnificado!B9:AF9,"TROP")</f>
@@ -3635,7 +3805,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B10">
         <f>COUNTIF(HorarioUnificado!B10:AF10,"DESC")+COUNTIF(HorarioUnificado!B10:AF10,"TROP")</f>
@@ -3684,7 +3854,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <f>COUNTIF(HorarioUnificado!B11:AF11,"DESC")+COUNTIF(HorarioUnificado!B11:AF11,"TROP")</f>
@@ -3733,7 +3903,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B12">
         <f>COUNTIF(HorarioUnificado!B12:AF12,"DESC")+COUNTIF(HorarioUnificado!B12:AF12,"TROP")</f>
@@ -3782,7 +3952,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B13">
         <f>COUNTIF(HorarioUnificado!B13:AF13,"DESC")+COUNTIF(HorarioUnificado!B13:AF13,"TROP")</f>
@@ -3831,7 +4001,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B14">
         <f>COUNTIF(HorarioUnificado!B14:AF14,"DESC")+COUNTIF(HorarioUnificado!B14:AF14,"TROP")</f>
@@ -3880,7 +4050,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B15">
         <f>COUNTIF(HorarioUnificado!B15:AF15,"DESC")+COUNTIF(HorarioUnificado!B15:AF15,"TROP")</f>
@@ -3929,7 +4099,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B16">
         <f>COUNTIF(HorarioUnificado!B16:AF16,"DESC")+COUNTIF(HorarioUnificado!B16:AF16,"TROP")</f>
@@ -3978,7 +4148,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B17">
         <f>COUNTIF(HorarioUnificado!B17:AF17,"DESC")+COUNTIF(HorarioUnificado!B17:AF17,"TROP")</f>
@@ -4027,7 +4197,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B18">
         <f>COUNTIF(HorarioUnificado!B18:AF18,"DESC")+COUNTIF(HorarioUnificado!B18:AF18,"TROP")</f>
@@ -4076,7 +4246,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B19">
         <f>COUNTIF(HorarioUnificado!B19:AF19,"DESC")+COUNTIF(HorarioUnificado!B19:AF19,"TROP")</f>
@@ -4125,7 +4295,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B20">
         <f>COUNTIF(HorarioUnificado!B20:AF20,"DESC")+COUNTIF(HorarioUnificado!B20:AF20,"TROP")</f>
@@ -4174,7 +4344,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B21">
         <f>COUNTIF(HorarioUnificado!B21:AF21,"DESC")+COUNTIF(HorarioUnificado!B21:AF21,"TROP")</f>
@@ -4223,7 +4393,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B22">
         <f>COUNTIF(HorarioUnificado!B22:AF22,"DESC")+COUNTIF(HorarioUnificado!B22:AF22,"TROP")</f>
@@ -4272,7 +4442,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B23">
         <f>COUNTIF(HorarioUnificado!B23:AF23,"DESC")+COUNTIF(HorarioUnificado!B23:AF23,"TROP")</f>
@@ -4321,7 +4491,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B24">
         <f>COUNTIF(HorarioUnificado!B24:AF24,"DESC")+COUNTIF(HorarioUnificado!B24:AF24,"TROP")</f>
@@ -4370,7 +4540,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B25">
         <f>COUNTIF(HorarioUnificado!B25:AF25,"DESC")+COUNTIF(HorarioUnificado!B25:AF25,"TROP")</f>

--- a/horarioUnificado_a_dividir.xlsx
+++ b/horarioUnificado_a_dividir.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Estadísticas" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HorarioUnificado!$A$1:$AF$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HorarioUnificado!$A$1:$AF$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -395,7 +395,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,24 +482,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6666"/>
-        <bgColor rgb="FFFF6666"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-        <bgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90EE90"/>
-        <bgColor rgb="FF90EE90"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFD700"/>
         <bgColor rgb="FFFFD700"/>
       </patternFill>
@@ -556,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -565,7 +547,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -578,16 +559,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,8 +849,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:TZ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="A26:XFD29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1102,40 +1080,40 @@
       <c r="G3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>46</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="9" t="s">
         <v>46</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="17" t="s">
         <v>47</v>
       </c>
       <c r="U3" s="3" t="s">
@@ -1156,7 +1134,7 @@
       <c r="Z3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AA3" s="18" t="s">
         <v>49</v>
       </c>
       <c r="AB3" s="3" t="s">
@@ -1179,100 +1157,100 @@
       <c r="A4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>52</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>52</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="14" t="s">
         <v>53</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="14" t="s">
         <v>51</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="S4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="U4" s="14" t="s">
         <v>52</v>
       </c>
       <c r="V4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="W4" s="14" t="s">
         <v>53</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Y4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="Z4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AA4" s="15" t="s">
+      <c r="AA4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AB4" s="14" t="s">
         <v>52</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AD4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AE4" s="14" t="s">
         <v>53</v>
       </c>
       <c r="AF4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AG4" s="14" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1280,25 +1258,25 @@
       <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>52</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -1307,73 +1285,73 @@
       <c r="J5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="14" t="s">
         <v>52</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="14" t="s">
         <v>52</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="14" t="s">
         <v>53</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="V5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="W5" s="15" t="s">
+      <c r="W5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="X5" s="15" t="s">
+      <c r="X5" s="14" t="s">
         <v>53</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Z5" s="15" t="s">
+      <c r="Z5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AA5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AB5" s="15" t="s">
+      <c r="AB5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AC5" s="15" t="s">
+      <c r="AC5" s="14" t="s">
         <v>53</v>
       </c>
       <c r="AD5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AE5" s="15" t="s">
+      <c r="AE5" s="14" t="s">
         <v>54</v>
       </c>
       <c r="AF5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AG5" s="15" t="s">
+      <c r="AG5" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1402,79 +1380,79 @@
       <c r="H6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>51</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="14" t="s">
         <v>57</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="14" t="s">
         <v>54</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="S6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="U6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V6" s="15" t="s">
+      <c r="V6" s="14" t="s">
         <v>54</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X6" s="15" t="s">
+      <c r="X6" s="14" t="s">
         <v>54</v>
       </c>
       <c r="Y6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Z6" s="15" t="s">
+      <c r="Z6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="15" t="s">
+      <c r="AA6" s="14" t="s">
         <v>58</v>
       </c>
       <c r="AB6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC6" s="15" t="s">
+      <c r="AC6" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AD6" s="15" t="s">
+      <c r="AD6" s="14" t="s">
         <v>51</v>
       </c>
       <c r="AE6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AF6" s="15" t="s">
+      <c r="AF6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AG6" s="15" t="s">
+      <c r="AG6" s="14" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1482,10 +1460,10 @@
       <c r="A7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1494,7 +1472,7 @@
       <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -1515,7 +1493,7 @@
       <c r="L7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="19" t="s">
         <v>61</v>
       </c>
       <c r="N7" s="3" t="s">
@@ -1536,37 +1514,37 @@
       <c r="S7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="U7" s="8" t="s">
         <v>62</v>
       </c>
       <c r="V7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W7" s="10" t="s">
+      <c r="W7" s="9" t="s">
         <v>46</v>
       </c>
       <c r="X7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="Y7" s="8" t="s">
         <v>62</v>
       </c>
       <c r="Z7" t="s">
         <v>60</v>
       </c>
-      <c r="AA7" s="18" t="s">
+      <c r="AA7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AB7" s="11" t="s">
+      <c r="AB7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AC7" s="12" t="s">
+      <c r="AC7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AD7" s="12" t="s">
+      <c r="AD7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AE7" s="10" t="s">
+      <c r="AE7" s="9" t="s">
         <v>46</v>
       </c>
       <c r="AF7" s="3" t="s">
@@ -1610,64 +1588,64 @@
       <c r="L8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="14" t="s">
         <v>51</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="14" t="s">
         <v>51</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="R8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="S8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="T8" s="15" t="s">
+      <c r="T8" s="14" t="s">
         <v>58</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V8" s="15" t="s">
+      <c r="V8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="W8" s="15" t="s">
+      <c r="W8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="X8" s="15" t="s">
+      <c r="X8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="Y8" s="15" t="s">
+      <c r="Y8" s="14" t="s">
         <v>51</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA8" s="15" t="s">
+      <c r="AA8" s="14" t="s">
         <v>57</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC8" s="15" t="s">
+      <c r="AC8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AD8" s="15" t="s">
+      <c r="AD8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AE8" s="15" t="s">
+      <c r="AE8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AF8" s="15" t="s">
+      <c r="AF8" s="14" t="s">
         <v>52</v>
       </c>
       <c r="AG8" s="3" t="s">
@@ -1678,10 +1656,10 @@
       <c r="A9" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1693,19 +1671,19 @@
       <c r="F9" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>46</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>62</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -1714,16 +1692,16 @@
       <c r="M9" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="N9" s="16" t="s">
         <v>67</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="8" t="s">
         <v>62</v>
       </c>
       <c r="R9" s="3" t="s">
@@ -1732,19 +1710,19 @@
       <c r="S9" t="s">
         <v>44</v>
       </c>
-      <c r="T9" s="17" t="s">
+      <c r="T9" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="U9" s="14" t="s">
+      <c r="U9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="V9" s="10" t="s">
+      <c r="V9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="W9" s="12" t="s">
+      <c r="W9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="X9" s="19" t="s">
+      <c r="X9" s="18" t="s">
         <v>47</v>
       </c>
       <c r="Y9" s="3" t="s">
@@ -1753,13 +1731,13 @@
       <c r="Z9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AB9" s="13" t="s">
+      <c r="AB9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AC9" s="18" t="s">
+      <c r="AC9" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AD9" s="13" t="s">
+      <c r="AD9" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE9" s="3" t="s">
@@ -1782,13 +1760,13 @@
       <c r="D10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>62</v>
       </c>
       <c r="H10" t="s">
@@ -1797,28 +1775,28 @@
       <c r="I10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>60</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="20" t="s">
         <v>72</v>
       </c>
       <c r="N10" t="s">
         <v>66</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="11" t="s">
         <v>44</v>
       </c>
       <c r="R10" s="3" t="s">
@@ -1827,37 +1805,37 @@
       <c r="S10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="22" t="s">
+      <c r="T10" s="21" t="s">
         <v>61</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="14" t="s">
+      <c r="V10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="W10" s="10" t="s">
         <v>60</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y10" s="13" t="s">
+      <c r="Y10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Z10" s="9" t="s">
+      <c r="Z10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AA10" s="17" t="s">
+      <c r="AA10" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="AB10" s="10" t="s">
+      <c r="AB10" s="9" t="s">
         <v>46</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AD10" s="14" t="s">
+      <c r="AD10" s="13" t="s">
         <v>43</v>
       </c>
       <c r="AE10" s="3" t="s">
@@ -1871,13 +1849,13 @@
       <c r="A11" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E11" t="s">
@@ -1886,16 +1864,16 @@
       <c r="F11" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>47</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>44</v>
       </c>
       <c r="K11" t="s">
@@ -1925,43 +1903,43 @@
       <c r="S11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T11" s="18" t="s">
+      <c r="T11" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="U11" s="10" t="s">
         <v>60</v>
       </c>
       <c r="V11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W11" s="13" t="s">
+      <c r="W11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="X11" s="9" t="s">
+      <c r="X11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="Y11" s="10" t="s">
+      <c r="Y11" s="9" t="s">
         <v>46</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA11" s="21" t="s">
+      <c r="AA11" s="20" t="s">
         <v>72</v>
       </c>
       <c r="AB11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC11" s="8" t="s">
+      <c r="AC11" s="7" t="s">
         <v>76</v>
       </c>
       <c r="AD11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AE11" s="14" t="s">
+      <c r="AE11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AF11" s="13" t="s">
+      <c r="AF11" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1972,37 +1950,37 @@
       <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>72</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="16" t="s">
         <v>45</v>
       </c>
       <c r="N12" t="s">
@@ -2011,34 +1989,34 @@
       <c r="O12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="P12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="R12" s="14" t="s">
+      <c r="R12" s="13" t="s">
         <v>43</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T12" s="17" t="s">
+      <c r="T12" s="16" t="s">
         <v>67</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V12" s="12" t="s">
+      <c r="V12" s="11" t="s">
         <v>44</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X12" s="13" t="s">
+      <c r="X12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Y12" s="18" t="s">
+      <c r="Y12" s="17" t="s">
         <v>47</v>
       </c>
       <c r="Z12" t="s">
@@ -2047,16 +2025,16 @@
       <c r="AB12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC12" s="10" t="s">
+      <c r="AC12" s="9" t="s">
         <v>46</v>
       </c>
       <c r="AD12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AE12" s="9" t="s">
+      <c r="AE12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AF12" s="18" t="s">
+      <c r="AF12" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2097,10 +2075,10 @@
       <c r="L13" t="s">
         <v>60</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="N13" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O13" t="s">
@@ -2145,7 +2123,7 @@
       <c r="AB13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC13" s="9" t="s">
+      <c r="AC13" s="8" t="s">
         <v>62</v>
       </c>
       <c r="AD13" s="3" t="s">
@@ -2154,7 +2132,7 @@
       <c r="AE13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AF13" s="10" t="s">
+      <c r="AF13" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2162,31 +2140,31 @@
       <c r="A14" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>60</v>
       </c>
       <c r="H14" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>46</v>
       </c>
       <c r="K14" s="3" t="s">
@@ -2195,7 +2173,7 @@
       <c r="L14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="17" t="s">
         <v>47</v>
       </c>
       <c r="N14" t="s">
@@ -2204,16 +2182,16 @@
       <c r="O14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="8" t="s">
         <v>62</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="S14" s="13" t="s">
+      <c r="S14" s="12" t="s">
         <v>42</v>
       </c>
       <c r="T14" t="s">
@@ -2222,34 +2200,34 @@
       <c r="U14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="V14" s="10" t="s">
         <v>60</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X14" s="12" t="s">
+      <c r="X14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Y14" s="18" t="s">
+      <c r="Y14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="Z14" s="18" t="s">
+      <c r="Z14" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AA14" t="s">
         <v>66</v>
       </c>
-      <c r="AB14" s="14" t="s">
+      <c r="AB14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AC14" s="11" t="s">
+      <c r="AC14" s="10" t="s">
         <v>60</v>
       </c>
       <c r="AD14" t="s">
         <v>71</v>
       </c>
-      <c r="AE14" s="12" t="s">
+      <c r="AE14" s="11" t="s">
         <v>44</v>
       </c>
       <c r="AF14" s="3" t="s">
@@ -2263,10 +2241,10 @@
       <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -2278,7 +2256,7 @@
       <c r="H15" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>60</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -2287,25 +2265,25 @@
       <c r="K15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="8" t="s">
         <v>62</v>
       </c>
       <c r="M15" t="s">
         <v>70</v>
       </c>
-      <c r="N15" s="18" t="s">
+      <c r="N15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P15" s="9" t="s">
         <v>46</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R15" s="12" t="s">
+      <c r="R15" s="11" t="s">
         <v>44</v>
       </c>
       <c r="S15" s="3" t="s">
@@ -2314,19 +2292,19 @@
       <c r="U15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="V15" s="13" t="s">
+      <c r="V15" s="12" t="s">
         <v>42</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="X15" s="10" t="s">
         <v>60</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Z15" s="5" t="s">
+      <c r="Z15" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AA15" t="s">
@@ -2338,7 +2316,7 @@
       <c r="AC15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AD15" s="9" t="s">
+      <c r="AD15" s="8" t="s">
         <v>62</v>
       </c>
       <c r="AE15" s="3" t="s">
@@ -2352,13 +2330,13 @@
       <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E16" t="s">
@@ -2367,31 +2345,31 @@
       <c r="F16" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>46</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="10" t="s">
         <v>60</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="O16" s="9" t="s">
+      <c r="O16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="P16" s="13" t="s">
         <v>43</v>
       </c>
       <c r="Q16" s="3" t="s">
@@ -2406,25 +2384,25 @@
       <c r="T16" t="s">
         <v>65</v>
       </c>
-      <c r="U16" s="13" t="s">
+      <c r="U16" s="12" t="s">
         <v>42</v>
       </c>
       <c r="V16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W16" s="9" t="s">
+      <c r="W16" s="8" t="s">
         <v>62</v>
       </c>
       <c r="X16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y16" s="11" t="s">
+      <c r="Y16" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Z16" s="18" t="s">
+      <c r="Z16" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AA16" s="17" t="s">
+      <c r="AA16" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AB16" s="3" t="s">
@@ -2436,10 +2414,10 @@
       <c r="AD16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AE16" s="13" t="s">
+      <c r="AE16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AF16" s="12" t="s">
+      <c r="AF16" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2447,10 +2425,10 @@
       <c r="A17" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2459,13 +2437,13 @@
       <c r="E17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="11" t="s">
         <v>44</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -2474,7 +2452,7 @@
       <c r="J17" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="9" t="s">
         <v>46</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -2483,19 +2461,19 @@
       <c r="M17" t="s">
         <v>65</v>
       </c>
-      <c r="N17" s="22" t="s">
+      <c r="N17" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="O17" s="10" t="s">
         <v>60</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q17" s="14" t="s">
+      <c r="Q17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="R17" s="13" t="s">
+      <c r="R17" s="12" t="s">
         <v>42</v>
       </c>
       <c r="S17" s="3" t="s">
@@ -2507,10 +2485,10 @@
       <c r="U17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V17" s="9" t="s">
+      <c r="V17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="W17" s="18" t="s">
+      <c r="W17" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X17" s="3" t="s">
@@ -2519,19 +2497,19 @@
       <c r="Y17" t="s">
         <v>74</v>
       </c>
-      <c r="Z17" s="13" t="s">
+      <c r="Z17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AB17" s="9" t="s">
+      <c r="AB17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AC17" s="18" t="s">
+      <c r="AC17" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AD17" s="11" t="s">
+      <c r="AD17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AE17" s="11" t="s">
+      <c r="AE17" s="10" t="s">
         <v>60</v>
       </c>
       <c r="AF17" s="3" t="s">
@@ -2545,76 +2523,76 @@
       <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E18" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>47</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="11" t="s">
         <v>44</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="11" t="s">
         <v>44</v>
       </c>
       <c r="L18" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="O18" s="13" t="s">
+      <c r="O18" s="12" t="s">
         <v>42</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="Q18" s="12" t="s">
         <v>42</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S18" s="9" t="s">
+      <c r="S18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="T18" s="21" t="s">
+      <c r="T18" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="U18" s="10" t="s">
+      <c r="U18" s="9" t="s">
         <v>46</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W18" s="18" t="s">
+      <c r="W18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="X18" s="18" t="s">
+      <c r="X18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="Y18" s="12" t="s">
+      <c r="Y18" s="11" t="s">
         <v>44</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA18" s="22" t="s">
+      <c r="AA18" s="21" t="s">
         <v>61</v>
       </c>
       <c r="AB18" t="s">
@@ -2623,13 +2601,13 @@
       <c r="AC18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AD18" s="10" t="s">
+      <c r="AD18" s="9" t="s">
         <v>46</v>
       </c>
       <c r="AE18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AF18" s="11" t="s">
+      <c r="AF18" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2646,13 +2624,13 @@
       <c r="D19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="11" t="s">
         <v>44</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -2664,10 +2642,10 @@
       <c r="J19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="12" t="s">
         <v>42</v>
       </c>
       <c r="N19" t="s">
@@ -2682,13 +2660,13 @@
       <c r="Q19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="R19" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="S19" s="14" t="s">
+      <c r="S19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U19" s="12" t="s">
+      <c r="U19" s="11" t="s">
         <v>44</v>
       </c>
       <c r="V19" s="3" t="s">
@@ -2697,7 +2675,7 @@
       <c r="W19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="10" t="s">
+      <c r="X19" s="9" t="s">
         <v>46</v>
       </c>
       <c r="Y19" s="3" t="s">
@@ -2709,10 +2687,10 @@
       <c r="AA19" t="s">
         <v>65</v>
       </c>
-      <c r="AB19" s="12" t="s">
+      <c r="AB19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AC19" s="13" t="s">
+      <c r="AC19" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AD19" s="3" t="s">
@@ -2721,7 +2699,7 @@
       <c r="AE19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AF19" s="18" t="s">
+      <c r="AF19" s="17" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2738,7 +2716,7 @@
       <c r="D20" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F20" t="s">
@@ -2750,7 +2728,7 @@
       <c r="H20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -2765,7 +2743,7 @@
       <c r="M20" t="s">
         <v>92</v>
       </c>
-      <c r="N20" s="23" t="s">
+      <c r="N20" s="22" t="s">
         <v>93</v>
       </c>
       <c r="O20" t="s">
@@ -2783,19 +2761,19 @@
       <c r="S20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T20" s="23" t="s">
+      <c r="T20" s="22" t="s">
         <v>94</v>
       </c>
       <c r="U20" t="s">
         <v>74</v>
       </c>
-      <c r="V20" s="8" t="s">
+      <c r="V20" s="7" t="s">
         <v>76</v>
       </c>
       <c r="W20" t="s">
         <v>71</v>
       </c>
-      <c r="X20" s="8" t="s">
+      <c r="X20" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Y20" s="3" t="s">
@@ -2807,13 +2785,13 @@
       <c r="AA20" t="s">
         <v>71</v>
       </c>
-      <c r="AB20" s="8" t="s">
+      <c r="AB20" s="7" t="s">
         <v>76</v>
       </c>
       <c r="AC20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AD20" s="7" t="s">
+      <c r="AD20" s="6" t="s">
         <v>90</v>
       </c>
       <c r="AE20" s="3" t="s">
@@ -2854,10 +2832,10 @@
       <c r="J21" t="s">
         <v>74</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="6" t="s">
         <v>90</v>
       </c>
       <c r="M21" t="s">
@@ -2875,13 +2853,13 @@
       <c r="Q21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R21" s="8" t="s">
+      <c r="R21" s="7" t="s">
         <v>76</v>
       </c>
       <c r="S21" t="s">
         <v>71</v>
       </c>
-      <c r="T21" s="23" t="s">
+      <c r="T21" s="22" t="s">
         <v>93</v>
       </c>
       <c r="U21" s="3" t="s">
@@ -2890,7 +2868,7 @@
       <c r="V21" t="s">
         <v>71</v>
       </c>
-      <c r="W21" s="7" t="s">
+      <c r="W21" s="6" t="s">
         <v>90</v>
       </c>
       <c r="X21" s="3" t="s">
@@ -2902,7 +2880,7 @@
       <c r="Z21" t="s">
         <v>76</v>
       </c>
-      <c r="AA21" s="23" t="s">
+      <c r="AA21" s="22" t="s">
         <v>93</v>
       </c>
       <c r="AB21" t="s">
@@ -2911,7 +2889,7 @@
       <c r="AC21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AD21" s="8" t="s">
+      <c r="AD21" s="7" t="s">
         <v>76</v>
       </c>
       <c r="AE21" t="s">
@@ -2955,7 +2933,7 @@
       <c r="K22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="4" t="s">
         <v>76</v>
       </c>
       <c r="M22" t="s">
@@ -2967,13 +2945,13 @@
       <c r="O22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="P22" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="Q22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="R22" s="7" t="s">
+      <c r="R22" s="6" t="s">
         <v>90</v>
       </c>
       <c r="S22" s="3" t="s">
@@ -2982,10 +2960,10 @@
       <c r="T22" t="s">
         <v>92</v>
       </c>
-      <c r="U22" s="8" t="s">
+      <c r="U22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="V22" s="7" t="s">
+      <c r="V22" s="6" t="s">
         <v>90</v>
       </c>
       <c r="W22" s="3" t="s">
@@ -3035,7 +3013,7 @@
       <c r="E23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>71</v>
       </c>
       <c r="G23" t="s">
@@ -3050,31 +3028,31 @@
       <c r="J23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="7" t="s">
         <v>76</v>
       </c>
       <c r="L23" t="s">
         <v>74</v>
       </c>
-      <c r="M23" s="23" t="s">
+      <c r="M23" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="N23" s="23" t="s">
+      <c r="N23" s="22" t="s">
         <v>94</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P23" s="8" t="s">
+      <c r="P23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="Q23" s="6" t="s">
         <v>90</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="S23" s="6" t="s">
         <v>90</v>
       </c>
       <c r="T23" t="s">
@@ -3086,13 +3064,13 @@
       <c r="V23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W23" s="8" t="s">
+      <c r="W23" s="7" t="s">
         <v>76</v>
       </c>
       <c r="X23" t="s">
         <v>71</v>
       </c>
-      <c r="Y23" s="7" t="s">
+      <c r="Y23" s="6" t="s">
         <v>90</v>
       </c>
       <c r="Z23" s="3" t="s">
@@ -3104,7 +3082,7 @@
       <c r="AB23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC23" s="7" t="s">
+      <c r="AC23" s="6" t="s">
         <v>90</v>
       </c>
       <c r="AD23" s="3" t="s">
@@ -3113,7 +3091,7 @@
       <c r="AE23" t="s">
         <v>74</v>
       </c>
-      <c r="AF23" s="8" t="s">
+      <c r="AF23" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3130,22 +3108,22 @@
       <c r="D24" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F24" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="6" t="s">
         <v>90</v>
       </c>
       <c r="K24" s="3" t="s">
@@ -3154,10 +3132,10 @@
       <c r="L24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="N24" s="23" t="s">
+      <c r="N24" s="22" t="s">
         <v>71</v>
       </c>
       <c r="O24" s="3" t="s">
@@ -3178,8 +3156,8 @@
       <c r="T24" t="s">
         <v>91</v>
       </c>
-      <c r="U24" s="7" t="s">
-        <v>90</v>
+      <c r="U24" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>37</v>
@@ -3187,7 +3165,7 @@
       <c r="W24" t="s">
         <v>74</v>
       </c>
-      <c r="X24" s="7" t="s">
+      <c r="X24" s="6" t="s">
         <v>90</v>
       </c>
       <c r="Y24" s="3" t="s">
@@ -3199,7 +3177,7 @@
       <c r="AA24" t="s">
         <v>92</v>
       </c>
-      <c r="AB24" s="7" t="s">
+      <c r="AB24" s="6" t="s">
         <v>90</v>
       </c>
       <c r="AC24" s="3" t="s">
@@ -3208,7 +3186,7 @@
       <c r="AD24" t="s">
         <v>74</v>
       </c>
-      <c r="AE24" s="8" t="s">
+      <c r="AE24" s="7" t="s">
         <v>76</v>
       </c>
       <c r="AF24" s="3" t="s">
@@ -3231,19 +3209,19 @@
       <c r="E25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="7" t="s">
         <v>76</v>
       </c>
       <c r="I25" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="7" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="3" t="s">
@@ -3252,7 +3230,7 @@
       <c r="L25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="23" t="s">
+      <c r="M25" s="22" t="s">
         <v>71</v>
       </c>
       <c r="N25" t="s">
@@ -3270,14 +3248,14 @@
       <c r="R25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S25" s="5" t="s">
+      <c r="S25" s="4" t="s">
         <v>76</v>
       </c>
       <c r="T25" t="s">
         <v>71</v>
       </c>
-      <c r="U25" s="3" t="s">
-        <v>37</v>
+      <c r="U25" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="V25" t="s">
         <v>74</v>
@@ -3288,10 +3266,10 @@
       <c r="X25" t="s">
         <v>74</v>
       </c>
-      <c r="Y25" s="8" t="s">
+      <c r="Y25" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="Z25" s="7" t="s">
+      <c r="Z25" s="6" t="s">
         <v>90</v>
       </c>
       <c r="AA25" t="s">
@@ -3306,50 +3284,17 @@
       <c r="AD25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AE25" s="7" t="s">
+      <c r="AE25" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AF25" s="7" t="s">
+      <c r="AF25" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="26"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="F29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="AA29" s="4"/>
-    </row>
+    <row r="26" spans="1:32" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:32" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:32" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:32" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -3374,40 +3319,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4495,7 +4440,7 @@
       </c>
       <c r="B24">
         <f>COUNTIF(HorarioUnificado!B24:AF24,"DESC")+COUNTIF(HorarioUnificado!B24:AF24,"TROP")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <f>COUNTIF(HorarioUnificado!B24:AF24,"1T")+COUNTIF(HorarioUnificado!B24:AF24,"7")+COUNTIF(HorarioUnificado!B24:AF24,"1")</f>
@@ -4503,7 +4448,7 @@
       </c>
       <c r="D24">
         <f>COUNTIF(HorarioUnificado!B24:AF24,"6RT")+COUNTIF(HorarioUnificado!B24:AF24,"7")+COUNTIF(HorarioUnificado!B24:AF24,"6R")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <f>COUNTIF(HorarioUnificado!B24:AF24,"6TT")+COUNTIF(HorarioUnificado!B24:AF24,"6T")</f>
@@ -4544,7 +4489,7 @@
       </c>
       <c r="B25">
         <f>COUNTIF(HorarioUnificado!B25:AF25,"DESC")+COUNTIF(HorarioUnificado!B25:AF25,"TROP")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <f>COUNTIF(HorarioUnificado!B25:AF25,"1T")+COUNTIF(HorarioUnificado!B25:AF25,"7")+COUNTIF(HorarioUnificado!B25:AF25,"1")</f>
@@ -4552,7 +4497,7 @@
       </c>
       <c r="D25">
         <f>COUNTIF(HorarioUnificado!B25:AF25,"6RT")+COUNTIF(HorarioUnificado!B25:AF25,"7")+COUNTIF(HorarioUnificado!B25:AF25,"6R")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <f>COUNTIF(HorarioUnificado!B25:AF25,"6TT")+COUNTIF(HorarioUnificado!B25:AF25,"6T")</f>
